--- a/项目/resources/NBA-data.xlsx
+++ b/项目/resources/NBA-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="42">
   <si>
     <t>赛季</t>
   </si>
@@ -90,6 +90,42 @@
   </si>
   <si>
     <t>13-14</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>11-12</t>
+  </si>
+  <si>
+    <t>10-11</t>
+  </si>
+  <si>
+    <t>09-10</t>
+  </si>
+  <si>
+    <t>08-09</t>
+  </si>
+  <si>
+    <t>07-08</t>
+  </si>
+  <si>
+    <t>06-07</t>
+  </si>
+  <si>
+    <t>05-06</t>
+  </si>
+  <si>
+    <t>04-05</t>
+  </si>
+  <si>
+    <t>03-04</t>
+  </si>
+  <si>
+    <t>02-03</t>
+  </si>
+  <si>
+    <t>01-02</t>
   </si>
   <si>
     <t>00-01</t>
@@ -329,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +375,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF010713"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,12 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,10 +781,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,16 +793,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,10 +814,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,92 +838,92 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -888,22 +966,67 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1322,7 +1445,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F21"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1334,1616 +1457,1616 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="17">
         <v>66</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="18">
         <v>66</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>28.2</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="19">
         <v>0.358</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="20">
         <v>6</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="20">
         <v>16.9</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="24">
         <v>0.285</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="25">
         <v>2</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="25">
         <v>7.1</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="26">
         <v>0.826</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="27">
         <v>3.5</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="27">
         <v>4.3</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="28">
         <v>3.7</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="17">
         <v>0.6</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="17">
         <v>3.1</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="28">
         <v>2.8</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="32">
         <v>0.9</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="33">
         <v>0.2</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="34">
         <v>2</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="17">
         <v>1.7</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="17">
         <v>17.6</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="17">
         <v>13</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="17">
         <v>53</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>35</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="18">
         <v>35</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>34.5</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="19">
         <v>0.373</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="20">
         <v>7.6</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="20">
         <v>20.4</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="24">
         <v>0.293</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="25">
         <v>1.5</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="25">
         <v>5.3</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="26">
         <v>0.813</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="27">
         <v>5.6</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="27">
         <v>6.9</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="28">
         <v>5.7</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="17">
         <v>0.7</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="17">
         <v>4.9</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="28">
         <v>5.6</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="32">
         <v>1.3</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="33">
         <v>0.2</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="34">
         <v>3.7</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="17">
         <v>1.9</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="17">
         <v>22.3</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="17">
         <v>10</v>
       </c>
-      <c r="Y3" s="16">
+      <c r="Y3" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>6</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="18">
         <v>6</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>29.5</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="19">
         <v>0.425</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="20">
         <v>5.2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="20">
         <v>12.2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="24">
         <v>0.188</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="25">
         <v>0.5</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="25">
         <v>2.7</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="26">
         <v>0.857</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="27">
         <v>3</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="27">
         <v>3.5</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="28">
         <v>4.3</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="17">
         <v>0.3</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="17">
         <v>4</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="28">
         <v>6.3</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="32">
         <v>1.2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="33">
         <v>0.2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="34">
         <v>5.7</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="17">
         <v>1.5</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="17">
         <v>13.8</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="17">
         <v>2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:25">
-      <c r="A5" s="18">
-        <v>44908</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>78</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="18">
         <v>78</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>38.7</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="19">
         <v>0.463</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="20">
         <v>9.5</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="20">
         <v>20.4</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="24">
         <v>0.324</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="25">
         <v>1.7</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="25">
         <v>5.2</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="26">
         <v>0.839</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="27">
         <v>6.7</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="27">
         <v>8</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="28">
         <v>5.6</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="17">
         <v>0.8</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="17">
         <v>4.7</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="28">
         <v>6</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="32">
         <v>1.4</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="33">
         <v>0.3</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="34">
         <v>3.7</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="17">
         <v>2.2</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="17">
         <v>27.3</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="17">
         <v>42</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:25">
-      <c r="A6" s="18">
-        <v>44877</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>58</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="18">
         <v>58</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>38.5</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="19">
         <v>0.43</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="20">
         <v>9.9</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="20">
         <v>23</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="24">
         <v>0.303</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="25">
         <v>1.5</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="25">
         <v>4.9</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="26">
         <v>0.845</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="27">
         <v>6.6</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="27">
         <v>7.8</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="28">
         <v>5.4</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="17">
         <v>1.1</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="17">
         <v>4.3</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="28">
         <v>4.6</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="32">
         <v>1.2</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="33">
         <v>0.3</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="34">
         <v>3.5</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="17">
         <v>1.8</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="17">
         <v>27.9</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="17">
         <v>36</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:25">
-      <c r="A7" s="18">
-        <v>44845</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>82</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="18">
         <v>82</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>33.9</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="19">
         <v>0.451</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="20">
         <v>9</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="20">
         <v>20</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="24">
         <v>0.323</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="25">
         <v>1.4</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="25">
         <v>4.3</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="26">
         <v>0.828</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="27">
         <v>5.9</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="27">
         <v>7.1</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="28">
         <v>5.1</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="17">
         <v>1</v>
       </c>
-      <c r="Q7" s="16">
+      <c r="Q7" s="17">
         <v>4.1</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="28">
         <v>4.7</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="32">
         <v>1.2</v>
       </c>
-      <c r="T7" s="16">
+      <c r="T7" s="33">
         <v>0.1</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="34">
         <v>3</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="17">
         <v>2.1</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="17">
         <v>25.3</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="17">
         <v>57</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:25">
-      <c r="A8" s="18">
-        <v>44814</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>73</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="18">
         <v>73</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>38.8</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="19">
         <v>0.456</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="20">
         <v>9.8</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="20">
         <v>21.5</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="24">
         <v>0.329</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="25">
         <v>1.4</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="25">
         <v>4.1</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="26">
         <v>0.811</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="27">
         <v>6</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="27">
         <v>7.4</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="28">
         <v>5.4</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="17">
         <v>1.1</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="17">
         <v>4.3</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="28">
         <v>5</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="32">
         <v>1.5</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="33">
         <v>0.3</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="34">
         <v>3.2</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="17">
         <v>2.6</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="17">
         <v>27</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="17">
         <v>51</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:25">
-      <c r="A9" s="18">
-        <v>44782</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <v>82</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="18">
         <v>82</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>36.1</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="19">
         <v>0.467</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="20">
         <v>9.8</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="20">
         <v>20.9</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="24">
         <v>0.351</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="25">
         <v>1.4</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="25">
         <v>4.1</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="26">
         <v>0.856</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="27">
         <v>5.9</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="27">
         <v>6.9</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="28">
         <v>5.2</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="17">
         <v>1.1</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="17">
         <v>4.1</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="28">
         <v>4.9</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="32">
         <v>1.5</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="33">
         <v>0.5</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="34">
         <v>2.6</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="17">
         <v>2.3</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="17">
         <v>26.8</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="17">
         <v>65</v>
       </c>
-      <c r="Y9" s="16">
+      <c r="Y9" s="17">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:25">
-      <c r="A10" s="18">
-        <v>44750</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>82</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="18">
         <v>82</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="17">
         <v>38.9</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="19">
         <v>0.459</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="20">
         <v>9.5</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="20">
         <v>20.6</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="24">
         <v>0.361</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="25">
         <v>1.8</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="25">
         <v>5.1</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="26">
         <v>0.84</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="27">
         <v>7.6</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="27">
         <v>9</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="28">
         <v>6.3</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="17">
         <v>1.1</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="17">
         <v>5.2</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="28">
         <v>5.4</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="32">
         <v>1.8</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="33">
         <v>0.5</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="34">
         <v>3.1</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="17">
         <v>2.8</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="17">
         <v>28.3</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="17">
         <v>57</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:25">
-      <c r="A11" s="18">
-        <v>44719</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>77</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="18">
         <v>77</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>40.8</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="19">
         <v>0.463</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="20">
         <v>10.6</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="20">
         <v>22.8</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="24">
         <v>0.344</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="25">
         <v>1.8</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="25">
         <v>5.2</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="26">
         <v>0.868</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="27">
         <v>8.7</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="27">
         <v>10</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="28">
         <v>5.7</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="17">
         <v>1</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="17">
         <v>4.7</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="28">
         <v>5.4</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="32">
         <v>1.4</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="33">
         <v>0.5</v>
       </c>
-      <c r="U11" s="16">
+      <c r="U11" s="34">
         <v>3.3</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="17">
         <v>2.7</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="17">
         <v>31.6</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11" s="17">
         <v>39</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="17">
         <v>38</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:25">
-      <c r="A12" s="18">
-        <v>44687</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>80</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="18">
         <v>80</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <v>41</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="19">
         <v>0.45</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="20">
         <v>12.2</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="20">
         <v>27.2</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="24">
         <v>0.347</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="25">
         <v>2.3</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="25">
         <v>6.5</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="26">
         <v>0.85</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="27">
         <v>8.7</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="27">
         <v>10.2</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="28">
         <v>5.3</v>
       </c>
-      <c r="P12" s="16">
+      <c r="P12" s="17">
         <v>0.9</v>
       </c>
-      <c r="Q12" s="16">
+      <c r="Q12" s="17">
         <v>4.4</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="28">
         <v>4.5</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="32">
         <v>1.8</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="33">
         <v>0.4</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="34">
         <v>3.1</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="17">
         <v>2.9</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="17">
         <v>35.4</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12" s="17">
         <v>45</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="Y12" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:25">
-      <c r="A13" s="18">
-        <v>44656</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>66</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="18">
         <v>66</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>40.7</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="19">
         <v>0.433</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="20">
         <v>8.7</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="20">
         <v>20.1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="24">
         <v>0.339</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="25">
         <v>2</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="25">
         <v>5.9</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="26">
         <v>0.816</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="27">
         <v>8.2</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="27">
         <v>10.1</v>
       </c>
-      <c r="O13" s="16">
+      <c r="O13" s="28">
         <v>5.9</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="17">
         <v>4.5</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="28">
         <v>6</v>
       </c>
-      <c r="S13" s="16">
+      <c r="S13" s="32">
         <v>1.3</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="33">
         <v>0.8</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="34">
         <v>4.1</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="17">
         <v>2.6</v>
       </c>
-      <c r="W13" s="16">
+      <c r="W13" s="17">
         <v>27.6</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13" s="17">
         <v>28</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="17">
         <v>38</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:25">
-      <c r="A14" s="18">
-        <v>44624</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>65</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="18">
         <v>64</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <v>37.6</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="19">
         <v>0.438</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="20">
         <v>7.9</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="20">
         <v>18.1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="24">
         <v>0.327</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="25">
         <v>1.1</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="25">
         <v>3.3</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="26">
         <v>0.852</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="27">
         <v>7</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="27">
         <v>8.2</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="28">
         <v>5.5</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="17">
         <v>1.6</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="17">
         <v>3.9</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="28">
         <v>5.1</v>
       </c>
-      <c r="S14" s="16">
+      <c r="S14" s="32">
         <v>1.7</v>
       </c>
-      <c r="T14" s="16">
+      <c r="T14" s="33">
         <v>0.4</v>
       </c>
-      <c r="U14" s="16">
+      <c r="U14" s="34">
         <v>2.6</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="17">
         <v>2.7</v>
       </c>
-      <c r="W14" s="16">
+      <c r="W14" s="17">
         <v>24</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14" s="17">
         <v>48</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="17">
         <v>17</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:25">
-      <c r="A15" s="18">
-        <v>44595</v>
-      </c>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>82</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="18">
         <v>82</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="17">
         <v>41.5</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="19">
         <v>0.451</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="20">
         <v>10.6</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="20">
         <v>23.5</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="24">
         <v>0.383</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="25">
         <v>1.5</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="25">
         <v>4</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="26">
         <v>0.843</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="27">
         <v>7.3</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="27">
         <v>8.7</v>
       </c>
-      <c r="O15" s="16">
+      <c r="O15" s="28">
         <v>6.9</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="17">
         <v>1.3</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="17">
         <v>5.6</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="28">
         <v>5.9</v>
       </c>
-      <c r="S15" s="16">
+      <c r="S15" s="32">
         <v>2.2</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="33">
         <v>0.8</v>
       </c>
-      <c r="U15" s="16">
+      <c r="U15" s="34">
         <v>3.5</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="17">
         <v>2.7</v>
       </c>
-      <c r="W15" s="16">
+      <c r="W15" s="17">
         <v>30</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15" s="17">
         <v>50</v>
       </c>
-      <c r="Y15" s="16">
+      <c r="Y15" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:25">
-      <c r="A16" s="18">
-        <v>44563</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>80</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="18">
         <v>80</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="17">
         <v>38.3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="19">
         <v>0.469</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="20">
         <v>9.4</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="20">
         <v>20</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="24">
         <v>0.25</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="25">
         <v>0.4</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="25">
         <v>1.7</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="26">
         <v>0.829</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="27">
         <v>6.1</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="27">
         <v>7.4</v>
       </c>
-      <c r="O16" s="16">
+      <c r="O16" s="28">
         <v>5.5</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="17">
         <v>4.1</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="28">
         <v>5.5</v>
       </c>
-      <c r="S16" s="16">
+      <c r="S16" s="32">
         <v>1.5</v>
       </c>
-      <c r="T16" s="16">
+      <c r="T16" s="33">
         <v>0.4</v>
       </c>
-      <c r="U16" s="16">
+      <c r="U16" s="34">
         <v>2.8</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="17">
         <v>2.9</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="17">
         <v>25.2</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16" s="17">
         <v>56</v>
       </c>
-      <c r="Y16" s="16">
+      <c r="Y16" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:25">
-      <c r="A17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>68</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="18">
         <v>68</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <v>40.9</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="19">
         <v>0.464</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="20">
         <v>10.3</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="20">
         <v>22.2</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="24">
         <v>0.305</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="25">
         <v>0.9</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="25">
         <v>2.9</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="26">
         <v>0.853</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="27">
         <v>7</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="27">
         <v>8.2</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="28">
         <v>5.9</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="17">
         <v>1.5</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="17">
         <v>4.3</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="28">
         <v>5</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="32">
         <v>1.7</v>
       </c>
-      <c r="T17" s="16">
+      <c r="T17" s="33">
         <v>0.6</v>
       </c>
-      <c r="U17" s="16">
+      <c r="U17" s="34">
         <v>3.2</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="17">
         <v>3.3</v>
       </c>
-      <c r="W17" s="16">
+      <c r="W17" s="17">
         <v>28.5</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="17">
         <v>45</v>
       </c>
-      <c r="Y17" s="16">
+      <c r="Y17" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:25">
-      <c r="A18" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>66</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="18">
         <v>62</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="17">
         <v>38.2</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="19">
         <v>0.468</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="20">
         <v>8.4</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="20">
         <v>17.9</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="24">
         <v>0.319</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="25">
         <v>0.7</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="25">
         <v>2.2</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="26">
         <v>0.821</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="27">
         <v>5</v>
       </c>
-      <c r="N18" s="16">
+      <c r="N18" s="27">
         <v>6.1</v>
       </c>
-      <c r="O18" s="16">
+      <c r="O18" s="28">
         <v>6.3</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="17">
         <v>1.6</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="17">
         <v>4.7</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="28">
         <v>4.9</v>
       </c>
-      <c r="S18" s="16">
+      <c r="S18" s="32">
         <v>1.6</v>
       </c>
-      <c r="T18" s="16">
+      <c r="T18" s="33">
         <v>0.9</v>
       </c>
-      <c r="U18" s="16">
+      <c r="U18" s="34">
         <v>2.8</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="17">
         <v>3.3</v>
       </c>
-      <c r="W18" s="16">
+      <c r="W18" s="17">
         <v>22.5</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18" s="17">
         <v>55</v>
       </c>
-      <c r="Y18" s="16">
+      <c r="Y18" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:25">
-      <c r="A19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="17">
         <v>50</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="18">
         <v>50</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>37.9</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="19">
         <v>0.465</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="20">
         <v>7.2</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="20">
         <v>15.6</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="24">
         <v>0.267</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="25">
         <v>0.5</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="25">
         <v>2</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="26">
         <v>0.839</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="27">
         <v>4.9</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="27">
         <v>5.8</v>
       </c>
-      <c r="O19" s="16">
+      <c r="O19" s="28">
         <v>5.3</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="17">
         <v>1.1</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="17">
         <v>4.2</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="28">
         <v>3.8</v>
       </c>
-      <c r="S19" s="16">
+      <c r="S19" s="32">
         <v>1.4</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="33">
         <v>1</v>
       </c>
-      <c r="U19" s="16">
+      <c r="U19" s="34">
         <v>3.1</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="17">
         <v>3.1</v>
       </c>
-      <c r="W19" s="16">
+      <c r="W19" s="17">
         <v>19.9</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="17">
         <v>31</v>
       </c>
-      <c r="Y19" s="16">
+      <c r="Y19" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:25">
-      <c r="A20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>79</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="18">
         <v>1</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="17">
         <v>26</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="19">
         <v>0.428</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="20">
         <v>4.9</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="20">
         <v>11.6</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="24">
         <v>0.341</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="25">
         <v>0.9</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="25">
         <v>2.8</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="26">
         <v>0.794</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="27">
         <v>4.6</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="27">
         <v>5.8</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="28">
         <v>3.1</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="17">
         <v>1</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="17">
         <v>2.1</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="28">
         <v>2.5</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="32">
         <v>0.9</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="33">
         <v>0.5</v>
       </c>
-      <c r="U20" s="16">
+      <c r="U20" s="34">
         <v>2</v>
       </c>
-      <c r="V20" s="16">
+      <c r="V20" s="17">
         <v>2.3</v>
       </c>
-      <c r="W20" s="16">
+      <c r="W20" s="17">
         <v>15.4</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20" s="17">
         <v>58</v>
       </c>
-      <c r="Y20" s="16">
+      <c r="Y20" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:25">
-      <c r="A21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="17">
         <v>71</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="18">
         <v>6</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <v>15.5</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="19">
         <v>0.417</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="20">
         <v>2.5</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="20">
         <v>5.9</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="24">
         <v>0.375</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="25">
         <v>0.7</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="25">
         <v>1.9</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="26">
         <v>0.819</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="27">
         <v>1.9</v>
       </c>
-      <c r="N21" s="16">
+      <c r="N21" s="27">
         <v>2.3</v>
       </c>
-      <c r="O21" s="16">
+      <c r="O21" s="28">
         <v>1.9</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="17">
         <v>0.7</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="17">
         <v>1.2</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="28">
         <v>1.3</v>
       </c>
-      <c r="S21" s="16">
+      <c r="S21" s="32">
         <v>0.7</v>
       </c>
-      <c r="T21" s="16">
+      <c r="T21" s="33">
         <v>0.3</v>
       </c>
-      <c r="U21" s="16">
+      <c r="U21" s="34">
         <v>1.6</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="17">
         <v>1.4</v>
       </c>
-      <c r="W21" s="16">
+      <c r="W21" s="17">
         <v>7.6</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="17">
         <v>48</v>
       </c>
-      <c r="Y21" s="16">
+      <c r="Y21" s="17">
         <v>23</v>
       </c>
     </row>
@@ -2955,40 +3078,32 @@
     <hyperlink ref="B3" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
     <hyperlink ref="A4" r:id="rId5" display="13-14" tooltip="http://www.stat-nba.com/season/2013.html"/>
     <hyperlink ref="B4" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A5" r:id="rId6" display="44908" tooltip="http://www.stat-nba.com/season/2012.html"/>
     <hyperlink ref="B5" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A6" r:id="rId7" display="44877" tooltip="http://www.stat-nba.com/season/2011.html"/>
     <hyperlink ref="B6" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A7" r:id="rId8" display="44845" tooltip="http://www.stat-nba.com/season/2010.html"/>
     <hyperlink ref="B7" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A8" r:id="rId9" display="44814" tooltip="http://www.stat-nba.com/season/2009.html"/>
     <hyperlink ref="B8" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A9" r:id="rId10" display="44782" tooltip="http://www.stat-nba.com/season/2008.html"/>
     <hyperlink ref="B9" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A10" r:id="rId11" display="44750" tooltip="http://www.stat-nba.com/season/2007.html"/>
     <hyperlink ref="B10" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A11" r:id="rId12" display="44719" tooltip="http://www.stat-nba.com/season/2006.html"/>
     <hyperlink ref="B11" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A12" r:id="rId13" display="44687" tooltip="http://www.stat-nba.com/season/2005.html"/>
     <hyperlink ref="B12" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A13" r:id="rId14" display="44656" tooltip="http://www.stat-nba.com/season/2004.html"/>
     <hyperlink ref="B13" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A14" r:id="rId15" display="44624" tooltip="http://www.stat-nba.com/season/2003.html"/>
     <hyperlink ref="B14" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A15" r:id="rId16" display="44595" tooltip="http://www.stat-nba.com/season/2002.html"/>
     <hyperlink ref="B15" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A16" r:id="rId17" display="44563" tooltip="http://www.stat-nba.com/season/2001.html"/>
     <hyperlink ref="B16" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A17" r:id="rId18" display="00-01" tooltip="http://www.stat-nba.com/season/2000.html"/>
+    <hyperlink ref="A17" r:id="rId6" display="00-01" tooltip="http://www.stat-nba.com/season/2000.html"/>
     <hyperlink ref="B17" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A18" r:id="rId19" display="99-00" tooltip="http://www.stat-nba.com/season/1999.html"/>
+    <hyperlink ref="A18" r:id="rId7" display="99-00" tooltip="http://www.stat-nba.com/season/1999.html"/>
     <hyperlink ref="B18" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A19" r:id="rId20" display="98-99" tooltip="http://www.stat-nba.com/season/1998.html"/>
+    <hyperlink ref="A19" r:id="rId8" display="98-99" tooltip="http://www.stat-nba.com/season/1998.html"/>
     <hyperlink ref="B19" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A20" r:id="rId21" display="97-98" tooltip="http://www.stat-nba.com/season/1997.html"/>
+    <hyperlink ref="A20" r:id="rId9" display="97-98" tooltip="http://www.stat-nba.com/season/1997.html"/>
     <hyperlink ref="B20" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
-    <hyperlink ref="A21" r:id="rId22" display="96-97" tooltip="http://www.stat-nba.com/season/1996.html"/>
+    <hyperlink ref="A21" r:id="rId10" display="96-97" tooltip="http://www.stat-nba.com/season/1996.html"/>
     <hyperlink ref="B21" r:id="rId3" display="洛杉矶湖人" tooltip="http://www.stat-nba.com/team/LAL.html"/>
+    <hyperlink ref="A5" r:id="rId4" display="12-13" tooltip="http://www.stat-nba.com/season/2014.html"/>
+    <hyperlink ref="A7" r:id="rId4" display="10-11" tooltip="http://www.stat-nba.com/season/2014.html"/>
+    <hyperlink ref="A6" r:id="rId5" display="11-12" tooltip="http://www.stat-nba.com/season/2013.html"/>
+    <hyperlink ref="A8" r:id="rId5" display="09-10" tooltip="http://www.stat-nba.com/season/2013.html"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4241,7 +4356,7 @@
     </row>
     <row r="17" ht="15.75" spans="1:25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>22</v>
@@ -4318,7 +4433,7 @@
     </row>
     <row r="18" ht="15.75" spans="1:25">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>22</v>
@@ -4395,7 +4510,7 @@
     </row>
     <row r="19" ht="15.75" spans="1:25">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
@@ -4472,7 +4587,7 @@
     </row>
     <row r="20" ht="15.75" spans="1:25">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>22</v>
@@ -4549,7 +4664,7 @@
     </row>
     <row r="21" ht="15.75" spans="1:25">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>22</v>
